--- a/biology/Zoologie/Chlamydotheca/Chlamydotheca.xlsx
+++ b/biology/Zoologie/Chlamydotheca/Chlamydotheca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlamydotheca est un genre de crustacés de la classe des ostracodes, de la sous-classe des Podocopa, de l'ordre des Podocopida, du sous-ordre des Cypridocopina et de la famille des Cyprididae.
 Il y a 36 espèces connues, trouvées en eau douce. 
@@ -512,10 +524,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chlamydotheca azteca de Saussure, 1858
-Chlamydotheca elegans Roessler, 1986[2]
+Chlamydotheca elegans Roessler, 1986
 Chlamydotheca incisa Claus, 1892
 Chlamydotheca barbadensis Sharpe, 1910
 Chlamydotheca unispinosa (Baird, 1862)
@@ -524,7 +538,7 @@
 Chlamydotheca leuckarti
 Chlamydotheca symmetrica
 Chlamydotheca arcuata (Sars, 1901)
-Chlamydotheca llanoensis† [3]
+Chlamydotheca llanoensis† 
 Noms en synonymie
 Chlamydotheca australis, un synonyme de Bennelongia australis.</t>
         </is>
